--- a/highVolume.xlsx
+++ b/highVolume.xlsx
@@ -7334,6 +7334,9 @@
       <c r="R2" t="n">
         <v>1.72</v>
       </c>
+      <c r="S2" t="n">
+        <v>1.74</v>
+      </c>
       <c r="V2">
         <f>MAX(H2:U2)</f>
         <v/>
@@ -7399,6 +7402,9 @@
       <c r="O3" t="n">
         <v>14.99</v>
       </c>
+      <c r="P3" t="n">
+        <v>14.99</v>
+      </c>
       <c r="V3">
         <f>MAX(H3:U3)</f>
         <v/>
@@ -7464,6 +7470,9 @@
       <c r="O4" t="n">
         <v>13.015</v>
       </c>
+      <c r="P4" t="n">
+        <v>12.52</v>
+      </c>
       <c r="V4">
         <f>MAX(H4:U4)</f>
         <v/>
@@ -7529,6 +7538,9 @@
       <c r="O5" t="n">
         <v>10.13</v>
       </c>
+      <c r="P5" t="n">
+        <v>10.39</v>
+      </c>
       <c r="V5">
         <f>MAX(H5:U5)</f>
         <v/>
@@ -7594,6 +7606,9 @@
       <c r="O6" t="n">
         <v>6.115</v>
       </c>
+      <c r="P6" t="n">
+        <v>5.92</v>
+      </c>
       <c r="V6">
         <f>MAX(H6:U6)</f>
         <v/>
@@ -7659,6 +7674,9 @@
       <c r="O7" t="n">
         <v>2.88</v>
       </c>
+      <c r="P7" t="n">
+        <v>3.005</v>
+      </c>
       <c r="V7">
         <f>MAX(H7:U7)</f>
         <v/>
@@ -7724,6 +7742,9 @@
       <c r="O8" t="n">
         <v>0.008</v>
       </c>
+      <c r="P8" t="n">
+        <v>0.012</v>
+      </c>
       <c r="V8">
         <f>MAX(H8:U8)</f>
         <v/>
@@ -7789,6 +7810,9 @@
       <c r="O9" t="n">
         <v>0.4</v>
       </c>
+      <c r="P9" t="n">
+        <v>0.382</v>
+      </c>
       <c r="V9">
         <f>MAX(H9:U9)</f>
         <v/>
@@ -7854,6 +7878,9 @@
       <c r="O10" t="n">
         <v>2.36</v>
       </c>
+      <c r="P10" t="n">
+        <v>2.21</v>
+      </c>
       <c r="V10">
         <f>MAX(H10:U10)</f>
         <v/>
@@ -7919,6 +7946,9 @@
       <c r="O11" t="n">
         <v>4.37</v>
       </c>
+      <c r="P11" t="n">
+        <v>4.48</v>
+      </c>
       <c r="V11">
         <f>MAX(H11:U11)</f>
         <v/>
@@ -7984,6 +8014,9 @@
       <c r="O12" t="n">
         <v>4.28</v>
       </c>
+      <c r="P12" t="n">
+        <v>4.18</v>
+      </c>
       <c r="V12">
         <f>MAX(H12:U12)</f>
         <v/>
@@ -8049,6 +8082,9 @@
       <c r="O13" t="n">
         <v>1.35</v>
       </c>
+      <c r="P13" t="n">
+        <v>1.37</v>
+      </c>
       <c r="V13">
         <f>MAX(H13:U13)</f>
         <v/>
@@ -8114,6 +8150,9 @@
       <c r="O14" t="n">
         <v>9.9</v>
       </c>
+      <c r="P14" t="n">
+        <v>9.9</v>
+      </c>
       <c r="V14">
         <f>MAX(H14:U14)</f>
         <v/>
@@ -8179,6 +8218,9 @@
       <c r="O15" t="n">
         <v>0.392</v>
       </c>
+      <c r="P15" t="n">
+        <v>0.41</v>
+      </c>
       <c r="V15">
         <f>MAX(H15:U15)</f>
         <v/>
@@ -8244,6 +8286,9 @@
       <c r="O16" t="n">
         <v>12.31</v>
       </c>
+      <c r="P16" t="n">
+        <v>12.36</v>
+      </c>
       <c r="V16">
         <f>MAX(H16:U16)</f>
         <v/>
@@ -8309,6 +8354,9 @@
       <c r="O17" t="n">
         <v>6.195</v>
       </c>
+      <c r="P17" t="n">
+        <v>6.19</v>
+      </c>
       <c r="V17">
         <f>MAX(H17:U17)</f>
         <v/>
@@ -8374,6 +8422,9 @@
       <c r="O18" t="n">
         <v>3.255</v>
       </c>
+      <c r="P18" t="n">
+        <v>3.52</v>
+      </c>
       <c r="V18">
         <f>MAX(H18:U18)</f>
         <v/>
@@ -8439,6 +8490,9 @@
       <c r="O19" t="n">
         <v>0.136</v>
       </c>
+      <c r="P19" t="n">
+        <v>0.17</v>
+      </c>
       <c r="V19">
         <f>MAX(H19:U19)</f>
         <v/>
@@ -8504,6 +8558,9 @@
       <c r="O20" t="n">
         <v>0.98</v>
       </c>
+      <c r="P20" t="n">
+        <v>0.93</v>
+      </c>
       <c r="V20">
         <f>MAX(H20:U20)</f>
         <v/>
@@ -8569,6 +8626,9 @@
       <c r="O21" t="n">
         <v>3.847</v>
       </c>
+      <c r="P21" t="n">
+        <v>3.89</v>
+      </c>
       <c r="V21">
         <f>MAX(H21:U21)</f>
         <v/>
@@ -8634,6 +8694,9 @@
       <c r="O22" t="n">
         <v>1.411</v>
       </c>
+      <c r="P22" t="n">
+        <v>1.76</v>
+      </c>
       <c r="V22">
         <f>MAX(H22:U22)</f>
         <v/>
@@ -8699,6 +8762,9 @@
       <c r="O23" t="n">
         <v>1.56</v>
       </c>
+      <c r="P23" t="n">
+        <v>1.6</v>
+      </c>
       <c r="V23">
         <f>MAX(H23:U23)</f>
         <v/>
@@ -8764,6 +8830,9 @@
       <c r="O24" t="n">
         <v>3.91</v>
       </c>
+      <c r="P24" t="n">
+        <v>5.399</v>
+      </c>
       <c r="V24">
         <f>MAX(H24:U24)</f>
         <v/>
@@ -8829,6 +8898,9 @@
       <c r="O25" t="n">
         <v>19.485</v>
       </c>
+      <c r="P25" t="n">
+        <v>19.51</v>
+      </c>
       <c r="V25">
         <f>MAX(H25:U25)</f>
         <v/>
@@ -8891,6 +8963,9 @@
       <c r="N26" t="n">
         <v>14.99</v>
       </c>
+      <c r="O26" t="n">
+        <v>14.99</v>
+      </c>
       <c r="V26">
         <f>MAX(H26:U26)</f>
         <v/>
@@ -8953,6 +9028,9 @@
       <c r="N27" t="n">
         <v>13.015</v>
       </c>
+      <c r="O27" t="n">
+        <v>12.52</v>
+      </c>
       <c r="V27">
         <f>MAX(H27:U27)</f>
         <v/>
@@ -9015,6 +9093,9 @@
       <c r="N28" t="n">
         <v>10.13</v>
       </c>
+      <c r="O28" t="n">
+        <v>10.39</v>
+      </c>
       <c r="V28">
         <f>MAX(H28:U28)</f>
         <v/>
@@ -9077,6 +9158,9 @@
       <c r="N29" t="n">
         <v>6.115</v>
       </c>
+      <c r="O29" t="n">
+        <v>5.92</v>
+      </c>
       <c r="V29">
         <f>MAX(H29:U29)</f>
         <v/>
@@ -9139,6 +9223,9 @@
       <c r="N30" t="n">
         <v>2.88</v>
       </c>
+      <c r="O30" t="n">
+        <v>3.005</v>
+      </c>
       <c r="V30">
         <f>MAX(H30:U30)</f>
         <v/>
@@ -9201,6 +9288,9 @@
       <c r="N31" t="n">
         <v>0.008</v>
       </c>
+      <c r="O31" t="n">
+        <v>0.012</v>
+      </c>
       <c r="V31">
         <f>MAX(H31:U31)</f>
         <v/>
@@ -9263,6 +9353,9 @@
       <c r="N32" t="n">
         <v>0.4</v>
       </c>
+      <c r="O32" t="n">
+        <v>0.382</v>
+      </c>
       <c r="V32">
         <f>MAX(H32:U32)</f>
         <v/>
@@ -9325,6 +9418,9 @@
       <c r="N33" t="n">
         <v>2.36</v>
       </c>
+      <c r="O33" t="n">
+        <v>2.21</v>
+      </c>
       <c r="V33">
         <f>MAX(H33:U33)</f>
         <v/>
@@ -9387,6 +9483,9 @@
       <c r="N34" t="n">
         <v>4.37</v>
       </c>
+      <c r="O34" t="n">
+        <v>4.48</v>
+      </c>
       <c r="V34">
         <f>MAX(H34:U34)</f>
         <v/>
@@ -9449,6 +9548,9 @@
       <c r="N35" t="n">
         <v>4.28</v>
       </c>
+      <c r="O35" t="n">
+        <v>4.18</v>
+      </c>
       <c r="V35">
         <f>MAX(H35:U35)</f>
         <v/>
@@ -9511,6 +9613,9 @@
       <c r="N36" t="n">
         <v>1.35</v>
       </c>
+      <c r="O36" t="n">
+        <v>1.37</v>
+      </c>
       <c r="V36">
         <f>MAX(H36:U36)</f>
         <v/>
@@ -9573,6 +9678,9 @@
       <c r="N37" t="n">
         <v>9.9</v>
       </c>
+      <c r="O37" t="n">
+        <v>9.9</v>
+      </c>
       <c r="V37">
         <f>MAX(H37:U37)</f>
         <v/>
@@ -9635,6 +9743,9 @@
       <c r="N38" t="n">
         <v>0.392</v>
       </c>
+      <c r="O38" t="n">
+        <v>0.41</v>
+      </c>
       <c r="V38">
         <f>MAX(H38:U38)</f>
         <v/>
@@ -9697,6 +9808,9 @@
       <c r="N39" t="n">
         <v>12.31</v>
       </c>
+      <c r="O39" t="n">
+        <v>12.35</v>
+      </c>
       <c r="V39">
         <f>MAX(H39:U39)</f>
         <v/>
@@ -9759,6 +9873,9 @@
       <c r="N40" t="n">
         <v>6.195</v>
       </c>
+      <c r="O40" t="n">
+        <v>6.19</v>
+      </c>
       <c r="V40">
         <f>MAX(H40:U40)</f>
         <v/>
@@ -9821,6 +9938,9 @@
       <c r="N41" t="n">
         <v>3.255</v>
       </c>
+      <c r="O41" t="n">
+        <v>3.52</v>
+      </c>
       <c r="V41">
         <f>MAX(H41:U41)</f>
         <v/>
@@ -9883,6 +10003,9 @@
       <c r="N42" t="n">
         <v>0.136</v>
       </c>
+      <c r="O42" t="n">
+        <v>0.17</v>
+      </c>
       <c r="V42">
         <f>MAX(H42:U42)</f>
         <v/>
@@ -9945,6 +10068,9 @@
       <c r="N43" t="n">
         <v>0.98</v>
       </c>
+      <c r="O43" t="n">
+        <v>0.93</v>
+      </c>
       <c r="V43">
         <f>MAX(H43:U43)</f>
         <v/>
@@ -10007,6 +10133,9 @@
       <c r="N44" t="n">
         <v>3.847</v>
       </c>
+      <c r="O44" t="n">
+        <v>3.89</v>
+      </c>
       <c r="V44">
         <f>MAX(H44:U44)</f>
         <v/>
@@ -10069,6 +10198,9 @@
       <c r="N45" t="n">
         <v>1.411</v>
       </c>
+      <c r="O45" t="n">
+        <v>1.755</v>
+      </c>
       <c r="V45">
         <f>MAX(H45:U45)</f>
         <v/>
@@ -10141,6 +10273,9 @@
       <c r="N46" t="n">
         <v>1.56</v>
       </c>
+      <c r="O46" t="n">
+        <v>1.6</v>
+      </c>
       <c r="V46">
         <f>MAX(H46:U46)</f>
         <v/>
@@ -10211,6 +10346,9 @@
       <c r="N47" t="n">
         <v>3.91</v>
       </c>
+      <c r="O47" t="n">
+        <v>5.4</v>
+      </c>
       <c r="V47">
         <f>MAX(H47:U47)</f>
         <v/>
@@ -10281,6 +10419,9 @@
       <c r="N48" t="n">
         <v>19.485</v>
       </c>
+      <c r="O48" t="n">
+        <v>19.55</v>
+      </c>
       <c r="V48">
         <f>MAX(H48:U48)</f>
         <v/>
@@ -10340,6 +10481,9 @@
       <c r="M49" t="n">
         <v>4.202</v>
       </c>
+      <c r="N49" t="n">
+        <v>4.15</v>
+      </c>
       <c r="V49">
         <f>MAX(H49:U49)</f>
         <v/>
@@ -10399,6 +10543,9 @@
       <c r="M50" t="n">
         <v>34.12</v>
       </c>
+      <c r="N50" t="n">
+        <v>34.705</v>
+      </c>
       <c r="V50">
         <f>MAX(H50:U50)</f>
         <v/>
@@ -10458,6 +10605,9 @@
       <c r="M51" t="n">
         <v>2.303</v>
       </c>
+      <c r="N51" t="n">
+        <v>2.3</v>
+      </c>
       <c r="V51">
         <f>MAX(H51:U51)</f>
         <v/>
@@ -10517,6 +10667,9 @@
       <c r="M52" t="n">
         <v>2.99</v>
       </c>
+      <c r="N52" t="n">
+        <v>2.88</v>
+      </c>
       <c r="V52">
         <f>MAX(H52:U52)</f>
         <v/>
@@ -10576,6 +10729,9 @@
       <c r="M53" t="n">
         <v>0.84</v>
       </c>
+      <c r="N53" t="n">
+        <v>0.83</v>
+      </c>
       <c r="V53">
         <f>MAX(H53:U53)</f>
         <v/>
@@ -10635,6 +10791,9 @@
       <c r="M54" t="n">
         <v>10.18</v>
       </c>
+      <c r="N54" t="n">
+        <v>10.18</v>
+      </c>
       <c r="V54">
         <f>MAX(H54:U54)</f>
         <v/>
@@ -10694,6 +10853,9 @@
       <c r="M55" t="n">
         <v>2</v>
       </c>
+      <c r="N55" t="n">
+        <v>1.84</v>
+      </c>
       <c r="V55">
         <f>MAX(H55:U55)</f>
         <v/>
@@ -10753,6 +10915,9 @@
       <c r="M56" t="n">
         <v>1.72</v>
       </c>
+      <c r="N56" t="n">
+        <v>1.73</v>
+      </c>
       <c r="V56">
         <f>MAX(H56:U56)</f>
         <v/>
@@ -10812,6 +10977,9 @@
       <c r="M57" t="n">
         <v>0.37</v>
       </c>
+      <c r="N57" t="n">
+        <v>0.363</v>
+      </c>
       <c r="V57">
         <f>MAX(H57:U57)</f>
         <v/>
@@ -10871,6 +11039,9 @@
       <c r="M58" t="n">
         <v>1.35</v>
       </c>
+      <c r="N58" t="n">
+        <v>1.37</v>
+      </c>
       <c r="V58">
         <f>MAX(H58:U58)</f>
         <v/>
@@ -10930,6 +11101,9 @@
       <c r="M59" t="n">
         <v>9.815</v>
       </c>
+      <c r="N59" t="n">
+        <v>9.82</v>
+      </c>
       <c r="V59">
         <f>MAX(H59:U59)</f>
         <v/>
@@ -10989,6 +11163,9 @@
       <c r="M60" t="n">
         <v>8.529999999999999</v>
       </c>
+      <c r="N60" t="n">
+        <v>8.535</v>
+      </c>
       <c r="V60">
         <f>MAX(H60:U60)</f>
         <v/>
@@ -11048,6 +11225,9 @@
       <c r="M61" t="n">
         <v>0.392</v>
       </c>
+      <c r="N61" t="n">
+        <v>0.41</v>
+      </c>
       <c r="V61">
         <f>MAX(H61:U61)</f>
         <v/>
@@ -11107,6 +11287,9 @@
       <c r="M62" t="n">
         <v>1.02</v>
       </c>
+      <c r="N62" t="n">
+        <v>1.059</v>
+      </c>
       <c r="V62">
         <f>MAX(H62:U62)</f>
         <v/>
@@ -11166,6 +11349,9 @@
       <c r="M63" t="n">
         <v>2.245</v>
       </c>
+      <c r="N63" t="n">
+        <v>2.33</v>
+      </c>
       <c r="V63">
         <f>MAX(H63:U63)</f>
         <v/>
@@ -11225,6 +11411,9 @@
       <c r="M64" t="n">
         <v>34.41</v>
       </c>
+      <c r="N64" t="n">
+        <v>34.43</v>
+      </c>
       <c r="V64">
         <f>MAX(H64:U64)</f>
         <v/>
@@ -11284,6 +11473,9 @@
       <c r="M65" t="n">
         <v>12.31</v>
       </c>
+      <c r="N65" t="n">
+        <v>12.35</v>
+      </c>
       <c r="V65">
         <f>MAX(H65:U65)</f>
         <v/>
@@ -11343,6 +11535,9 @@
       <c r="M66" t="n">
         <v>9.1</v>
       </c>
+      <c r="N66" t="n">
+        <v>9.333</v>
+      </c>
       <c r="V66">
         <f>MAX(H66:U66)</f>
         <v/>
@@ -11402,6 +11597,9 @@
       <c r="M67" t="n">
         <v>0.374</v>
       </c>
+      <c r="N67" t="n">
+        <v>0.39</v>
+      </c>
       <c r="V67">
         <f>MAX(H67:U67)</f>
         <v/>
@@ -11461,6 +11659,9 @@
       <c r="M68" t="n">
         <v>2.16</v>
       </c>
+      <c r="N68" t="n">
+        <v>2.32</v>
+      </c>
       <c r="V68">
         <f>MAX(H68:U68)</f>
         <v/>
@@ -11520,6 +11721,9 @@
       <c r="M69" t="n">
         <v>4.055</v>
       </c>
+      <c r="N69" t="n">
+        <v>3.932</v>
+      </c>
       <c r="V69">
         <f>MAX(H69:U69)</f>
         <v/>
@@ -11579,6 +11783,9 @@
       <c r="M70" t="n">
         <v>1.11</v>
       </c>
+      <c r="N70" t="n">
+        <v>1.153</v>
+      </c>
       <c r="V70">
         <f>MAX(H70:U70)</f>
         <v/>
@@ -11638,6 +11845,9 @@
       <c r="M71" t="n">
         <v>6.93</v>
       </c>
+      <c r="N71" t="n">
+        <v>6.26</v>
+      </c>
       <c r="V71">
         <f>MAX(H71:U71)</f>
         <v/>
@@ -11697,6 +11907,9 @@
       <c r="M72" t="n">
         <v>0.409</v>
       </c>
+      <c r="N72" t="n">
+        <v>0.416</v>
+      </c>
       <c r="V72">
         <f>MAX(H72:U72)</f>
         <v/>
@@ -11756,6 +11969,9 @@
       <c r="M73" t="n">
         <v>3.18</v>
       </c>
+      <c r="N73" t="n">
+        <v>3.36</v>
+      </c>
       <c r="V73">
         <f>MAX(H73:U73)</f>
         <v/>
@@ -11815,6 +12031,9 @@
       <c r="M74" t="n">
         <v>8.68</v>
       </c>
+      <c r="N74" t="n">
+        <v>9.58</v>
+      </c>
       <c r="V74">
         <f>MAX(H74:U74)</f>
         <v/>
@@ -11874,6 +12093,9 @@
       <c r="M75" t="n">
         <v>3.847</v>
       </c>
+      <c r="N75" t="n">
+        <v>3.89</v>
+      </c>
       <c r="V75">
         <f>MAX(H75:U75)</f>
         <v/>
@@ -11933,6 +12155,9 @@
       <c r="M76" t="n">
         <v>1.08</v>
       </c>
+      <c r="N76" t="n">
+        <v>1.04</v>
+      </c>
       <c r="V76">
         <f>MAX(H76:U76)</f>
         <v/>
@@ -11989,6 +12214,9 @@
       <c r="L77" t="n">
         <v>9.84</v>
       </c>
+      <c r="M77" t="n">
+        <v>9.84</v>
+      </c>
       <c r="V77">
         <f>MAX(H77:U77)</f>
         <v/>
@@ -12045,6 +12273,9 @@
       <c r="L78" t="n">
         <v>10.04</v>
       </c>
+      <c r="M78" t="n">
+        <v>10.04</v>
+      </c>
       <c r="V78">
         <f>MAX(H78:U78)</f>
         <v/>
@@ -12101,6 +12332,9 @@
       <c r="L79" t="n">
         <v>10.12</v>
       </c>
+      <c r="M79" t="n">
+        <v>10.12</v>
+      </c>
       <c r="V79">
         <f>MAX(H79:U79)</f>
         <v/>
@@ -12157,6 +12391,9 @@
       <c r="L80" t="n">
         <v>9.98</v>
       </c>
+      <c r="M80" t="n">
+        <v>9.970000000000001</v>
+      </c>
       <c r="V80">
         <f>MAX(H80:U80)</f>
         <v/>
@@ -12213,6 +12450,9 @@
       <c r="L81" t="n">
         <v>6.97</v>
       </c>
+      <c r="M81" t="n">
+        <v>7.19</v>
+      </c>
       <c r="V81">
         <f>MAX(H81:U81)</f>
         <v/>
@@ -12269,6 +12509,9 @@
       <c r="L82" t="n">
         <v>9.859999999999999</v>
       </c>
+      <c r="M82" t="n">
+        <v>9.859999999999999</v>
+      </c>
       <c r="V82">
         <f>MAX(H82:U82)</f>
         <v/>
@@ -12325,6 +12568,9 @@
       <c r="L83" t="n">
         <v>10.128</v>
       </c>
+      <c r="M83" t="n">
+        <v>10.128</v>
+      </c>
       <c r="V83">
         <f>MAX(H83:U83)</f>
         <v/>
@@ -12381,6 +12627,9 @@
       <c r="L84" t="n">
         <v>9.99</v>
       </c>
+      <c r="M84" t="n">
+        <v>9.99</v>
+      </c>
       <c r="V84">
         <f>MAX(H84:U84)</f>
         <v/>
@@ -12437,6 +12686,9 @@
       <c r="L85" t="n">
         <v>9.99</v>
       </c>
+      <c r="M85" t="n">
+        <v>10</v>
+      </c>
       <c r="V85">
         <f>MAX(H85:U85)</f>
         <v/>
@@ -12493,6 +12745,9 @@
       <c r="L86" t="n">
         <v>1.85</v>
       </c>
+      <c r="M86" t="n">
+        <v>1.8</v>
+      </c>
       <c r="V86">
         <f>MAX(H86:U86)</f>
         <v/>
@@ -12549,6 +12804,9 @@
       <c r="L87" t="n">
         <v>9.880000000000001</v>
       </c>
+      <c r="M87" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="V87">
         <f>MAX(H87:U87)</f>
         <v/>
@@ -12605,6 +12863,9 @@
       <c r="L88" t="n">
         <v>2.69</v>
       </c>
+      <c r="M88" t="n">
+        <v>2.84</v>
+      </c>
       <c r="V88">
         <f>MAX(H88:U88)</f>
         <v/>
@@ -12661,6 +12922,9 @@
       <c r="L89" t="n">
         <v>1.35</v>
       </c>
+      <c r="M89" t="n">
+        <v>1.37</v>
+      </c>
       <c r="V89">
         <f>MAX(H89:U89)</f>
         <v/>
@@ -12717,6 +12981,9 @@
       <c r="L90" t="n">
         <v>0.396</v>
       </c>
+      <c r="M90" t="n">
+        <v>0.38</v>
+      </c>
       <c r="V90">
         <f>MAX(H90:U90)</f>
         <v/>
@@ -12773,6 +13040,9 @@
       <c r="L91" t="n">
         <v>1.74</v>
       </c>
+      <c r="M91" t="n">
+        <v>1.612</v>
+      </c>
       <c r="V91">
         <f>MAX(H91:U91)</f>
         <v/>
@@ -12829,6 +13099,9 @@
       <c r="L92" t="n">
         <v>1.27</v>
       </c>
+      <c r="M92" t="n">
+        <v>1.235</v>
+      </c>
       <c r="V92">
         <f>MAX(H92:U92)</f>
         <v/>
@@ -12885,6 +13158,9 @@
       <c r="L93" t="n">
         <v>2.72</v>
       </c>
+      <c r="M93" t="n">
+        <v>2.66</v>
+      </c>
       <c r="V93">
         <f>MAX(H93:U93)</f>
         <v/>
@@ -12941,6 +13217,9 @@
       <c r="L94" t="n">
         <v>12.31</v>
       </c>
+      <c r="M94" t="n">
+        <v>12.35</v>
+      </c>
       <c r="V94">
         <f>MAX(H94:U94)</f>
         <v/>
@@ -12997,6 +13276,9 @@
       <c r="L95" t="n">
         <v>12.155</v>
       </c>
+      <c r="M95" t="n">
+        <v>11.965</v>
+      </c>
       <c r="V95">
         <f>MAX(H95:U95)</f>
         <v/>
@@ -13053,6 +13335,9 @@
       <c r="L96" t="n">
         <v>1.393</v>
       </c>
+      <c r="M96" t="n">
+        <v>1.395</v>
+      </c>
       <c r="V96">
         <f>MAX(H96:U96)</f>
         <v/>
@@ -13109,6 +13394,9 @@
       <c r="L97" t="n">
         <v>0.4</v>
       </c>
+      <c r="M97" t="n">
+        <v>0.386</v>
+      </c>
       <c r="V97">
         <f>MAX(H97:U97)</f>
         <v/>
@@ -13165,6 +13453,9 @@
       <c r="L98" t="n">
         <v>5.42</v>
       </c>
+      <c r="M98" t="n">
+        <v>5.405</v>
+      </c>
       <c r="V98">
         <f>MAX(H98:U98)</f>
         <v/>
@@ -13221,6 +13512,9 @@
       <c r="L99" t="n">
         <v>0.37</v>
       </c>
+      <c r="M99" t="n">
+        <v>0.363</v>
+      </c>
       <c r="V99">
         <f>MAX(H99:U99)</f>
         <v/>
@@ -13277,6 +13571,9 @@
       <c r="L100" t="n">
         <v>3.72</v>
       </c>
+      <c r="M100" t="n">
+        <v>3.595</v>
+      </c>
       <c r="V100">
         <f>MAX(H100:U100)</f>
         <v/>
@@ -13333,6 +13630,9 @@
       <c r="L101" t="n">
         <v>1.429</v>
       </c>
+      <c r="M101" t="n">
+        <v>1.47</v>
+      </c>
       <c r="V101">
         <f>MAX(H101:U101)</f>
         <v/>
@@ -13389,6 +13689,9 @@
       <c r="L102" t="n">
         <v>12.22</v>
       </c>
+      <c r="M102" t="n">
+        <v>14.81</v>
+      </c>
       <c r="V102">
         <f>MAX(H102:U102)</f>
         <v/>
@@ -13445,6 +13748,9 @@
       <c r="L103" t="n">
         <v>2.501</v>
       </c>
+      <c r="M103" t="n">
+        <v>2.445</v>
+      </c>
       <c r="V103">
         <f>MAX(H103:U103)</f>
         <v/>
@@ -13501,6 +13807,9 @@
       <c r="L104" t="n">
         <v>0.472</v>
       </c>
+      <c r="M104" t="n">
+        <v>0.464</v>
+      </c>
       <c r="V104">
         <f>MAX(H104:U104)</f>
         <v/>
@@ -13554,6 +13863,9 @@
       <c r="K105" t="n">
         <v>23.86</v>
       </c>
+      <c r="L105" t="n">
+        <v>24.55</v>
+      </c>
       <c r="V105">
         <f>MAX(H105:U105)</f>
         <v/>
@@ -13607,6 +13919,9 @@
       <c r="K106" t="n">
         <v>10.09</v>
       </c>
+      <c r="L106" t="n">
+        <v>10.1</v>
+      </c>
       <c r="V106">
         <f>MAX(H106:U106)</f>
         <v/>
@@ -13660,6 +13975,9 @@
       <c r="K107" t="n">
         <v>41.96</v>
       </c>
+      <c r="L107" t="n">
+        <v>41.701</v>
+      </c>
       <c r="V107">
         <f>MAX(H107:U107)</f>
         <v/>
@@ -13713,6 +14031,9 @@
       <c r="K108" t="n">
         <v>7.956</v>
       </c>
+      <c r="L108" t="n">
+        <v>8.210000000000001</v>
+      </c>
       <c r="V108">
         <f>MAX(H108:U108)</f>
         <v/>
@@ -13766,6 +14087,9 @@
       <c r="K109" t="n">
         <v>5.61</v>
       </c>
+      <c r="L109" t="n">
+        <v>5.5</v>
+      </c>
       <c r="V109">
         <f>MAX(H109:U109)</f>
         <v/>
@@ -13819,6 +14143,9 @@
       <c r="K110" t="n">
         <v>1.74</v>
       </c>
+      <c r="L110" t="n">
+        <v>1.612</v>
+      </c>
       <c r="V110">
         <f>MAX(H110:U110)</f>
         <v/>
@@ -13872,6 +14199,9 @@
       <c r="K111" t="n">
         <v>0.397</v>
       </c>
+      <c r="L111" t="n">
+        <v>0.42</v>
+      </c>
       <c r="V111">
         <f>MAX(H111:U111)</f>
         <v/>
@@ -13925,6 +14255,9 @@
       <c r="K112" t="n">
         <v>0.4</v>
       </c>
+      <c r="L112" t="n">
+        <v>0.386</v>
+      </c>
       <c r="V112">
         <f>MAX(H112:U112)</f>
         <v/>
@@ -13978,6 +14311,9 @@
       <c r="K113" t="n">
         <v>1.62</v>
       </c>
+      <c r="L113" t="n">
+        <v>1.68</v>
+      </c>
       <c r="V113">
         <f>MAX(H113:U113)</f>
         <v/>
@@ -14031,6 +14367,9 @@
       <c r="K114" t="n">
         <v>1.139</v>
       </c>
+      <c r="L114" t="n">
+        <v>1.04</v>
+      </c>
       <c r="V114">
         <f>MAX(H114:U114)</f>
         <v/>
@@ -14084,6 +14423,9 @@
       <c r="K115" t="n">
         <v>0.5590000000000001</v>
       </c>
+      <c r="L115" t="n">
+        <v>0.591</v>
+      </c>
       <c r="V115">
         <f>MAX(H115:U115)</f>
         <v/>
@@ -14137,6 +14479,9 @@
       <c r="K116" t="n">
         <v>12.155</v>
       </c>
+      <c r="L116" t="n">
+        <v>11.965</v>
+      </c>
       <c r="V116">
         <f>MAX(H116:U116)</f>
         <v/>
@@ -14190,6 +14535,9 @@
       <c r="K117" t="n">
         <v>1.105</v>
       </c>
+      <c r="L117" t="n">
+        <v>1.02</v>
+      </c>
       <c r="V117">
         <f>MAX(H117:U117)</f>
         <v/>
@@ -14243,6 +14591,9 @@
       <c r="K118" t="n">
         <v>0.396</v>
       </c>
+      <c r="L118" t="n">
+        <v>0.382</v>
+      </c>
       <c r="V118">
         <f>MAX(H118:U118)</f>
         <v/>
@@ -14296,6 +14647,9 @@
       <c r="K119" t="n">
         <v>2.77</v>
       </c>
+      <c r="L119" t="n">
+        <v>2.86</v>
+      </c>
       <c r="V119">
         <f>MAX(H119:U119)</f>
         <v/>
@@ -14349,6 +14703,9 @@
       <c r="K120" t="n">
         <v>2.245</v>
       </c>
+      <c r="L120" t="n">
+        <v>2.33</v>
+      </c>
       <c r="V120">
         <f>MAX(H120:U120)</f>
         <v/>
@@ -14402,6 +14759,9 @@
       <c r="K121" t="n">
         <v>9.35</v>
       </c>
+      <c r="L121" t="n">
+        <v>9.73</v>
+      </c>
       <c r="V121">
         <f>MAX(H121:U121)</f>
         <v/>
@@ -14455,6 +14815,9 @@
       <c r="K122" t="n">
         <v>0.472</v>
       </c>
+      <c r="L122" t="n">
+        <v>0.464</v>
+      </c>
       <c r="V122">
         <f>MAX(H122:U122)</f>
         <v/>
@@ -14508,6 +14871,9 @@
       <c r="K123" t="n">
         <v>4.44</v>
       </c>
+      <c r="L123" t="n">
+        <v>4.85</v>
+      </c>
       <c r="V123">
         <f>MAX(H123:U123)</f>
         <v/>
@@ -14561,6 +14927,9 @@
       <c r="K124" t="n">
         <v>0.169</v>
       </c>
+      <c r="L124" t="n">
+        <v>0.173</v>
+      </c>
       <c r="V124">
         <f>MAX(H124:U124)</f>
         <v/>
@@ -14614,6 +14983,9 @@
       <c r="K125" t="n">
         <v>9.93</v>
       </c>
+      <c r="L125" t="n">
+        <v>9.93</v>
+      </c>
       <c r="V125">
         <f>MAX(H125:U125)</f>
         <v/>
@@ -14667,6 +15039,9 @@
       <c r="K126" t="n">
         <v>0.36</v>
       </c>
+      <c r="L126" t="n">
+        <v>0.38</v>
+      </c>
       <c r="V126">
         <f>MAX(H126:U126)</f>
         <v/>
@@ -14720,6 +15095,9 @@
       <c r="K127" t="n">
         <v>4.202</v>
       </c>
+      <c r="L127" t="n">
+        <v>4.15</v>
+      </c>
       <c r="V127">
         <f>MAX(H127:U127)</f>
         <v/>
@@ -14773,6 +15151,9 @@
       <c r="K128" t="n">
         <v>9.869999999999999</v>
       </c>
+      <c r="L128" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="V128">
         <f>MAX(H128:U128)</f>
         <v/>
@@ -14826,6 +15207,9 @@
       <c r="K129" t="n">
         <v>9.91</v>
       </c>
+      <c r="L129" t="n">
+        <v>9.890000000000001</v>
+      </c>
       <c r="V129">
         <f>MAX(H129:U129)</f>
         <v/>
@@ -14879,6 +15263,9 @@
       <c r="K130" t="n">
         <v>9.99</v>
       </c>
+      <c r="L130" t="n">
+        <v>9.98</v>
+      </c>
       <c r="V130">
         <f>MAX(H130:U130)</f>
         <v/>
@@ -14932,6 +15319,9 @@
       <c r="K131" t="n">
         <v>9.85</v>
       </c>
+      <c r="L131" t="n">
+        <v>9.84</v>
+      </c>
       <c r="V131">
         <f>MAX(H131:U131)</f>
         <v/>
@@ -14985,6 +15375,9 @@
       <c r="K132" t="n">
         <v>9.85</v>
       </c>
+      <c r="L132" t="n">
+        <v>9.85</v>
+      </c>
       <c r="V132">
         <f>MAX(H132:U132)</f>
         <v/>
@@ -15038,6 +15431,9 @@
       <c r="K133" t="n">
         <v>1.64</v>
       </c>
+      <c r="L133" t="n">
+        <v>1.645</v>
+      </c>
       <c r="V133">
         <f>MAX(H133:U133)</f>
         <v/>
@@ -15091,6 +15487,9 @@
       <c r="K134" t="n">
         <v>9.859999999999999</v>
       </c>
+      <c r="L134" t="n">
+        <v>9.869999999999999</v>
+      </c>
       <c r="V134">
         <f>MAX(H134:U134)</f>
         <v/>
@@ -15144,6 +15543,9 @@
       <c r="K135" t="n">
         <v>9.859999999999999</v>
       </c>
+      <c r="L135" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="V135">
         <f>MAX(H135:U135)</f>
         <v/>
@@ -15197,6 +15599,9 @@
       <c r="K136" t="n">
         <v>9.81</v>
       </c>
+      <c r="L136" t="n">
+        <v>9.81</v>
+      </c>
       <c r="V136">
         <f>MAX(H136:U136)</f>
         <v/>
@@ -15250,6 +15655,9 @@
       <c r="K137" t="n">
         <v>9.945</v>
       </c>
+      <c r="L137" t="n">
+        <v>9.949999999999999</v>
+      </c>
       <c r="V137">
         <f>MAX(H137:U137)</f>
         <v/>
@@ -15303,6 +15711,9 @@
       <c r="K138" t="n">
         <v>0.225</v>
       </c>
+      <c r="L138" t="n">
+        <v>0.227</v>
+      </c>
       <c r="V138">
         <f>MAX(H138:U138)</f>
         <v/>
@@ -15356,6 +15767,9 @@
       <c r="K139" t="n">
         <v>1.11</v>
       </c>
+      <c r="L139" t="n">
+        <v>1.075</v>
+      </c>
       <c r="V139">
         <f>MAX(H139:U139)</f>
         <v/>
@@ -15409,6 +15823,9 @@
       <c r="K140" t="n">
         <v>9.9</v>
       </c>
+      <c r="L140" t="n">
+        <v>9.890000000000001</v>
+      </c>
       <c r="V140">
         <f>MAX(H140:U140)</f>
         <v/>
@@ -15462,6 +15879,9 @@
       <c r="K141" t="n">
         <v>0.396</v>
       </c>
+      <c r="L141" t="n">
+        <v>0.38</v>
+      </c>
       <c r="V141">
         <f>MAX(H141:U141)</f>
         <v/>
@@ -15515,6 +15935,9 @@
       <c r="K142" t="n">
         <v>0.288</v>
       </c>
+      <c r="L142" t="n">
+        <v>0.35</v>
+      </c>
       <c r="V142">
         <f>MAX(H142:U142)</f>
         <v/>
@@ -15568,6 +15991,9 @@
       <c r="K143" t="n">
         <v>4.44</v>
       </c>
+      <c r="L143" t="n">
+        <v>4.85</v>
+      </c>
       <c r="V143">
         <f>MAX(H143:U143)</f>
         <v/>
@@ -15621,6 +16047,9 @@
       <c r="K144" t="n">
         <v>7.81</v>
       </c>
+      <c r="L144" t="n">
+        <v>8.125</v>
+      </c>
       <c r="V144">
         <f>MAX(H144:U144)</f>
         <v/>
@@ -15674,6 +16103,9 @@
       <c r="K145" t="n">
         <v>0.67</v>
       </c>
+      <c r="L145" t="n">
+        <v>0.7</v>
+      </c>
       <c r="V145">
         <f>MAX(H145:U145)</f>
         <v/>
@@ -15727,6 +16159,9 @@
       <c r="K146" t="n">
         <v>4.1</v>
       </c>
+      <c r="L146" t="n">
+        <v>4.09</v>
+      </c>
       <c r="V146">
         <f>MAX(H146:U146)</f>
         <v/>
@@ -15780,6 +16215,9 @@
       <c r="K147" t="n">
         <v>0.342</v>
       </c>
+      <c r="L147" t="n">
+        <v>0.301</v>
+      </c>
       <c r="V147">
         <f>MAX(H147:U147)</f>
         <v/>
@@ -15833,6 +16271,9 @@
       <c r="K148" t="n">
         <v>0.472</v>
       </c>
+      <c r="L148" t="n">
+        <v>0.464</v>
+      </c>
       <c r="V148">
         <f>MAX(H148:U148)</f>
         <v/>
@@ -15886,6 +16327,9 @@
       <c r="K149" t="n">
         <v>1.581</v>
       </c>
+      <c r="L149" t="n">
+        <v>1.61</v>
+      </c>
       <c r="V149">
         <f>MAX(H149:U149)</f>
         <v/>
@@ -15936,6 +16380,9 @@
       <c r="J150" t="n">
         <v>9.93</v>
       </c>
+      <c r="K150" t="n">
+        <v>9.93</v>
+      </c>
       <c r="V150">
         <f>MAX(H150:U150)</f>
         <v/>
@@ -15986,6 +16433,9 @@
       <c r="J151" t="n">
         <v>0.36</v>
       </c>
+      <c r="K151" t="n">
+        <v>0.38</v>
+      </c>
       <c r="V151">
         <f>MAX(H151:U151)</f>
         <v/>
@@ -16036,6 +16486,9 @@
       <c r="J152" t="n">
         <v>4.202</v>
       </c>
+      <c r="K152" t="n">
+        <v>4.15</v>
+      </c>
       <c r="V152">
         <f>MAX(H152:U152)</f>
         <v/>
@@ -16086,6 +16539,9 @@
       <c r="J153" t="n">
         <v>9.869999999999999</v>
       </c>
+      <c r="K153" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="V153">
         <f>MAX(H153:U153)</f>
         <v/>
@@ -16136,6 +16592,9 @@
       <c r="J154" t="n">
         <v>9.91</v>
       </c>
+      <c r="K154" t="n">
+        <v>9.890000000000001</v>
+      </c>
       <c r="V154">
         <f>MAX(H154:U154)</f>
         <v/>
@@ -16186,6 +16645,9 @@
       <c r="J155" t="n">
         <v>9.99</v>
       </c>
+      <c r="K155" t="n">
+        <v>9.98</v>
+      </c>
       <c r="V155">
         <f>MAX(H155:U155)</f>
         <v/>
@@ -16236,6 +16698,9 @@
       <c r="J156" t="n">
         <v>9.85</v>
       </c>
+      <c r="K156" t="n">
+        <v>9.84</v>
+      </c>
       <c r="V156">
         <f>MAX(H156:U156)</f>
         <v/>
@@ -16286,6 +16751,9 @@
       <c r="J157" t="n">
         <v>9.85</v>
       </c>
+      <c r="K157" t="n">
+        <v>9.85</v>
+      </c>
       <c r="V157">
         <f>MAX(H157:U157)</f>
         <v/>
@@ -16336,6 +16804,9 @@
       <c r="J158" t="n">
         <v>1.64</v>
       </c>
+      <c r="K158" t="n">
+        <v>1.645</v>
+      </c>
       <c r="V158">
         <f>MAX(H158:U158)</f>
         <v/>
@@ -16386,6 +16857,9 @@
       <c r="J159" t="n">
         <v>9.859999999999999</v>
       </c>
+      <c r="K159" t="n">
+        <v>9.869999999999999</v>
+      </c>
       <c r="V159">
         <f>MAX(H159:U159)</f>
         <v/>
@@ -16436,6 +16910,9 @@
       <c r="J160" t="n">
         <v>9.859999999999999</v>
       </c>
+      <c r="K160" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="V160">
         <f>MAX(H160:U160)</f>
         <v/>
@@ -16486,6 +16963,9 @@
       <c r="J161" t="n">
         <v>9.81</v>
       </c>
+      <c r="K161" t="n">
+        <v>9.81</v>
+      </c>
       <c r="V161">
         <f>MAX(H161:U161)</f>
         <v/>
@@ -16536,6 +17016,9 @@
       <c r="J162" t="n">
         <v>9.945</v>
       </c>
+      <c r="K162" t="n">
+        <v>9.949999999999999</v>
+      </c>
       <c r="V162">
         <f>MAX(H162:U162)</f>
         <v/>
@@ -16586,6 +17069,9 @@
       <c r="J163" t="n">
         <v>0.225</v>
       </c>
+      <c r="K163" t="n">
+        <v>0.227</v>
+      </c>
       <c r="V163">
         <f>MAX(H163:U163)</f>
         <v/>
@@ -16636,6 +17122,9 @@
       <c r="J164" t="n">
         <v>1.11</v>
       </c>
+      <c r="K164" t="n">
+        <v>1.075</v>
+      </c>
       <c r="V164">
         <f>MAX(H164:U164)</f>
         <v/>
@@ -16686,6 +17175,9 @@
       <c r="J165" t="n">
         <v>9.9</v>
       </c>
+      <c r="K165" t="n">
+        <v>9.890000000000001</v>
+      </c>
       <c r="V165">
         <f>MAX(H165:U165)</f>
         <v/>
@@ -16736,6 +17228,9 @@
       <c r="J166" t="n">
         <v>0.4</v>
       </c>
+      <c r="K166" t="n">
+        <v>0.38</v>
+      </c>
       <c r="V166">
         <f>MAX(H166:U166)</f>
         <v/>
@@ -16786,6 +17281,9 @@
       <c r="J167" t="n">
         <v>0.288</v>
       </c>
+      <c r="K167" t="n">
+        <v>0.35</v>
+      </c>
       <c r="V167">
         <f>MAX(H167:U167)</f>
         <v/>
@@ -16836,6 +17334,9 @@
       <c r="J168" t="n">
         <v>4.44</v>
       </c>
+      <c r="K168" t="n">
+        <v>4.85</v>
+      </c>
       <c r="V168">
         <f>MAX(H168:U168)</f>
         <v/>
@@ -16886,6 +17387,9 @@
       <c r="J169" t="n">
         <v>7.81</v>
       </c>
+      <c r="K169" t="n">
+        <v>8.115</v>
+      </c>
       <c r="V169">
         <f>MAX(H169:U169)</f>
         <v/>
@@ -16936,6 +17440,9 @@
       <c r="J170" t="n">
         <v>0.67</v>
       </c>
+      <c r="K170" t="n">
+        <v>0.7</v>
+      </c>
       <c r="V170">
         <f>MAX(H170:U170)</f>
         <v/>
@@ -16986,6 +17493,9 @@
       <c r="J171" t="n">
         <v>4.1</v>
       </c>
+      <c r="K171" t="n">
+        <v>4.09</v>
+      </c>
       <c r="V171">
         <f>MAX(H171:U171)</f>
         <v/>
@@ -17036,6 +17546,9 @@
       <c r="J172" t="n">
         <v>0.342</v>
       </c>
+      <c r="K172" t="n">
+        <v>0.301</v>
+      </c>
       <c r="V172">
         <f>MAX(H172:U172)</f>
         <v/>
@@ -17086,6 +17599,9 @@
       <c r="J173" t="n">
         <v>0.472</v>
       </c>
+      <c r="K173" t="n">
+        <v>0.464</v>
+      </c>
       <c r="V173">
         <f>MAX(H173:U173)</f>
         <v/>
@@ -17136,6 +17652,9 @@
       <c r="J174" t="n">
         <v>1.581</v>
       </c>
+      <c r="K174" t="n">
+        <v>1.61</v>
+      </c>
       <c r="V174">
         <f>MAX(H174:U174)</f>
         <v/>
@@ -17183,6 +17702,9 @@
       <c r="I175" t="n">
         <v>10.25</v>
       </c>
+      <c r="J175" t="n">
+        <v>10.24</v>
+      </c>
       <c r="V175">
         <f>MAX(H175:U175)</f>
         <v/>
@@ -17230,6 +17752,9 @@
       <c r="I176" t="n">
         <v>9.9</v>
       </c>
+      <c r="J176" t="n">
+        <v>9.9</v>
+      </c>
       <c r="V176">
         <f>MAX(H176:U176)</f>
         <v/>
@@ -17277,6 +17802,9 @@
       <c r="I177" t="n">
         <v>4.42</v>
       </c>
+      <c r="J177" t="n">
+        <v>4.535</v>
+      </c>
       <c r="V177">
         <f>MAX(H177:U177)</f>
         <v/>
@@ -17324,6 +17852,9 @@
       <c r="I178" t="n">
         <v>10.128</v>
       </c>
+      <c r="J178" t="n">
+        <v>10.128</v>
+      </c>
       <c r="V178">
         <f>MAX(H178:U178)</f>
         <v/>
@@ -17371,6 +17902,9 @@
       <c r="I179" t="n">
         <v>7.011</v>
       </c>
+      <c r="J179" t="n">
+        <v>7.223</v>
+      </c>
       <c r="V179">
         <f>MAX(H179:U179)</f>
         <v/>
@@ -17418,6 +17952,9 @@
       <c r="I180" t="n">
         <v>9.84</v>
       </c>
+      <c r="J180" t="n">
+        <v>9.84</v>
+      </c>
       <c r="V180">
         <f>MAX(H180:U180)</f>
         <v/>
@@ -17465,6 +18002,9 @@
       <c r="I181" t="n">
         <v>7.33</v>
       </c>
+      <c r="J181" t="n">
+        <v>6.93</v>
+      </c>
       <c r="V181">
         <f>MAX(H181:U181)</f>
         <v/>
@@ -17512,6 +18052,9 @@
       <c r="I182" t="n">
         <v>9.98</v>
       </c>
+      <c r="J182" t="n">
+        <v>10</v>
+      </c>
       <c r="V182">
         <f>MAX(H182:U182)</f>
         <v/>
@@ -17559,6 +18102,9 @@
       <c r="I183" t="n">
         <v>9.77</v>
       </c>
+      <c r="J183" t="n">
+        <v>9.76</v>
+      </c>
       <c r="V183">
         <f>MAX(H183:U183)</f>
         <v/>
@@ -17606,6 +18152,9 @@
       <c r="I184" t="n">
         <v>9.84</v>
       </c>
+      <c r="J184" t="n">
+        <v>9.842000000000001</v>
+      </c>
       <c r="V184">
         <f>MAX(H184:U184)</f>
         <v/>
@@ -17653,6 +18202,9 @@
       <c r="I185" t="n">
         <v>9.9</v>
       </c>
+      <c r="J185" t="n">
+        <v>9.890000000000001</v>
+      </c>
       <c r="V185">
         <f>MAX(H185:U185)</f>
         <v/>
@@ -17700,6 +18252,9 @@
       <c r="I186" t="n">
         <v>2.77</v>
       </c>
+      <c r="J186" t="n">
+        <v>2.8</v>
+      </c>
       <c r="V186">
         <f>MAX(H186:U186)</f>
         <v/>
@@ -17747,6 +18302,9 @@
       <c r="I187" t="n">
         <v>1.111</v>
       </c>
+      <c r="J187" t="n">
+        <v>1.075</v>
+      </c>
       <c r="V187">
         <f>MAX(H187:U187)</f>
         <v/>
@@ -17794,6 +18352,9 @@
       <c r="I188" t="n">
         <v>4.275</v>
       </c>
+      <c r="J188" t="n">
+        <v>4.18</v>
+      </c>
       <c r="V188">
         <f>MAX(H188:U188)</f>
         <v/>
@@ -17841,6 +18402,9 @@
       <c r="I189" t="n">
         <v>0.254</v>
       </c>
+      <c r="J189" t="n">
+        <v>0.247</v>
+      </c>
       <c r="V189">
         <f>MAX(H189:U189)</f>
         <v/>
@@ -17888,6 +18452,9 @@
       <c r="I190" t="n">
         <v>0.292</v>
       </c>
+      <c r="J190" t="n">
+        <v>0.285</v>
+      </c>
       <c r="V190">
         <f>MAX(H190:U190)</f>
         <v/>
@@ -17935,6 +18502,9 @@
       <c r="I191" t="n">
         <v>3.015</v>
       </c>
+      <c r="J191" t="n">
+        <v>2.68</v>
+      </c>
       <c r="V191">
         <f>MAX(H191:U191)</f>
         <v/>
@@ -17981,6 +18551,9 @@
       <c r="H192" t="n">
         <v>16.83</v>
       </c>
+      <c r="I192" t="n">
+        <v>17.25</v>
+      </c>
       <c r="V192">
         <f>MAX(H192:U192)</f>
         <v/>
@@ -18027,6 +18600,9 @@
       <c r="H193" t="n">
         <v>12.06</v>
       </c>
+      <c r="I193" t="n">
+        <v>11.98</v>
+      </c>
       <c r="W193" s="2">
         <f>IF(V193&gt;F193, "Green"," Red")</f>
         <v/>
@@ -18069,6 +18645,9 @@
       <c r="H194" t="n">
         <v>4.42</v>
       </c>
+      <c r="I194" t="n">
+        <v>4.535</v>
+      </c>
       <c r="W194" s="2">
         <f>IF(V194&gt;F194, "Green"," Red")</f>
         <v/>
@@ -18111,6 +18690,9 @@
       <c r="H195" t="n">
         <v>7.49</v>
       </c>
+      <c r="I195" t="n">
+        <v>7.6</v>
+      </c>
       <c r="W195" s="2">
         <f>IF(V195&gt;F195, "Green"," Red")</f>
         <v/>
@@ -18153,6 +18735,9 @@
       <c r="H196" t="n">
         <v>1.139</v>
       </c>
+      <c r="I196" t="n">
+        <v>1.06</v>
+      </c>
       <c r="W196" s="2">
         <f>IF(V196&gt;F196, "Green"," Red")</f>
         <v/>
@@ -18195,6 +18780,9 @@
       <c r="H197" t="n">
         <v>10.05</v>
       </c>
+      <c r="I197" t="n">
+        <v>10.06</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -18233,6 +18821,9 @@
       <c r="H198" t="n">
         <v>1.04</v>
       </c>
+      <c r="I198" t="n">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -18271,6 +18862,9 @@
       <c r="H199" t="n">
         <v>10.03</v>
       </c>
+      <c r="I199" t="n">
+        <v>10.025</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -18309,6 +18903,9 @@
       <c r="H200" t="n">
         <v>0.438</v>
       </c>
+      <c r="I200" t="n">
+        <v>0.431</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -18347,6 +18944,9 @@
       <c r="H201" t="n">
         <v>9.789999999999999</v>
       </c>
+      <c r="I201" t="n">
+        <v>9.800000000000001</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -18385,6 +18985,9 @@
       <c r="H202" t="n">
         <v>9.869999999999999</v>
       </c>
+      <c r="I202" t="n">
+        <v>9.859999999999999</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -18423,6 +19026,9 @@
       <c r="H203" t="n">
         <v>0.99</v>
       </c>
+      <c r="I203" t="n">
+        <v>0.929</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -18461,6 +19067,9 @@
       <c r="H204" t="n">
         <v>9.815</v>
       </c>
+      <c r="I204" t="n">
+        <v>9.82</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -18499,6 +19108,9 @@
       <c r="H205" t="n">
         <v>1.62</v>
       </c>
+      <c r="I205" t="n">
+        <v>1.61</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -18537,6 +19149,9 @@
       <c r="H206" t="n">
         <v>100.99</v>
       </c>
+      <c r="I206" t="n">
+        <v>98.17</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -18575,6 +19190,9 @@
       <c r="H207" t="n">
         <v>9.98</v>
       </c>
+      <c r="I207" t="n">
+        <v>10.009</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -18613,6 +19231,9 @@
       <c r="H208" t="n">
         <v>9.994999999999999</v>
       </c>
+      <c r="I208" t="n">
+        <v>9.994999999999999</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -18651,6 +19272,9 @@
       <c r="H209" t="n">
         <v>53.85</v>
       </c>
+      <c r="I209" t="n">
+        <v>54.2</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -18689,6 +19313,9 @@
       <c r="H210" t="n">
         <v>0.221</v>
       </c>
+      <c r="I210" t="n">
+        <v>0.206</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -18727,6 +19354,9 @@
       <c r="H211" t="n">
         <v>0.254</v>
       </c>
+      <c r="I211" t="n">
+        <v>0.247</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -18765,6 +19395,9 @@
       <c r="H212" t="n">
         <v>3.73</v>
       </c>
+      <c r="I212" t="n">
+        <v>3.55</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -18803,6 +19436,9 @@
       <c r="H213" t="n">
         <v>0.505</v>
       </c>
+      <c r="I213" t="n">
+        <v>0.458</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -18841,6 +19477,9 @@
       <c r="H214" t="n">
         <v>3.762</v>
       </c>
+      <c r="I214" t="n">
+        <v>4.71</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -18879,6 +19518,9 @@
       <c r="H215" t="n">
         <v>2.67</v>
       </c>
+      <c r="I215" t="n">
+        <v>2.259</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -18914,6 +19556,9 @@
           <t>0.00%</t>
         </is>
       </c>
+      <c r="H216" t="n">
+        <v>10.24</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -18949,6 +19594,9 @@
           <t>0.00%</t>
         </is>
       </c>
+      <c r="H217" t="n">
+        <v>22.62</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -18984,6 +19632,9 @@
           <t>7.00%</t>
         </is>
       </c>
+      <c r="H218" t="n">
+        <v>10.14</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -19019,6 +19670,9 @@
           <t>-20.72%</t>
         </is>
       </c>
+      <c r="H219" t="n">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -19054,6 +19708,9 @@
           <t>0.00%</t>
         </is>
       </c>
+      <c r="H220" t="n">
+        <v>10.08</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -19089,6 +19746,9 @@
           <t>0.10%</t>
         </is>
       </c>
+      <c r="H221" t="n">
+        <v>10.08</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -19124,6 +19784,9 @@
           <t>-6.53%</t>
         </is>
       </c>
+      <c r="H222" t="n">
+        <v>4.35</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -19159,6 +19822,9 @@
           <t>-0.10%</t>
         </is>
       </c>
+      <c r="H223" t="n">
+        <v>10.08</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -19194,6 +19860,9 @@
           <t>-3.26%</t>
         </is>
       </c>
+      <c r="H224" t="n">
+        <v>3.57</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -19229,6 +19898,9 @@
           <t>0.05%</t>
         </is>
       </c>
+      <c r="H225" t="n">
+        <v>9.734999999999999</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -19264,6 +19936,9 @@
           <t>0.10%</t>
         </is>
       </c>
+      <c r="H226" t="n">
+        <v>9.84</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -19299,6 +19974,9 @@
           <t>0.25%</t>
         </is>
       </c>
+      <c r="H227" t="n">
+        <v>9.960000000000001</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -19334,6 +20012,9 @@
           <t>-0.10%</t>
         </is>
       </c>
+      <c r="H228" t="n">
+        <v>9.98</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -19369,6 +20050,9 @@
           <t>-0.42%</t>
         </is>
       </c>
+      <c r="H229" t="n">
+        <v>10.23</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -19404,6 +20088,9 @@
           <t>11.08%</t>
         </is>
       </c>
+      <c r="H230" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -19439,6 +20126,9 @@
           <t>11.26%</t>
         </is>
       </c>
+      <c r="H231" t="n">
+        <v>1.721</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -19474,6 +20164,9 @@
           <t>8.15%</t>
         </is>
       </c>
+      <c r="H232" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -19509,6 +20202,9 @@
           <t>14.35%</t>
         </is>
       </c>
+      <c r="H233" t="n">
+        <v>12.32</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -19544,6 +20240,9 @@
           <t>28.65%</t>
         </is>
       </c>
+      <c r="H234" t="n">
+        <v>0.885</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -19579,6 +20278,9 @@
           <t>0.10%</t>
         </is>
       </c>
+      <c r="H235" t="n">
+        <v>10.01</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -19614,6 +20316,9 @@
           <t>4.77%</t>
         </is>
       </c>
+      <c r="H236" t="n">
+        <v>1.035</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -19649,6 +20354,9 @@
           <t>-66.70%</t>
         </is>
       </c>
+      <c r="H237" t="n">
+        <v>2.91</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -19684,6 +20392,9 @@
           <t>-6.83%</t>
         </is>
       </c>
+      <c r="H238" t="n">
+        <v>23.89</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -19719,6 +20430,9 @@
           <t>-19.29%</t>
         </is>
       </c>
+      <c r="H239" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -19754,6 +20468,9 @@
           <t>7.34%</t>
         </is>
       </c>
+      <c r="H240" t="n">
+        <v>1.99</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -19789,6 +20506,9 @@
           <t>16.92%</t>
         </is>
       </c>
+      <c r="H241" t="n">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -19824,6 +20544,9 @@
           <t>-78.98%</t>
         </is>
       </c>
+      <c r="H242" t="n">
+        <v>0.373</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -19859,6 +20582,9 @@
           <t>8.63%</t>
         </is>
       </c>
+      <c r="H243" t="n">
+        <v>0.184</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -19894,6 +20620,9 @@
           <t>77.25%</t>
         </is>
       </c>
+      <c r="H244" t="n">
+        <v>2.29</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -19929,6 +20658,9 @@
           <t>30.51%</t>
         </is>
       </c>
+      <c r="H245" t="n">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -19964,60 +20696,639 @@
           <t>48.60%</t>
         </is>
       </c>
+      <c r="H246" t="n">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="247">
-      <c r="C247" s="3" t="n"/>
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>SLCRU</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Shell Companies</t>
+        </is>
+      </c>
+      <c r="C247" s="3" t="n">
+        <v>44763</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>46853</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
+      </c>
     </row>
     <row r="248">
-      <c r="C248" s="3" t="n"/>
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>MLAC</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Shell Companies</t>
+        </is>
+      </c>
+      <c r="C248" s="3" t="n">
+        <v>44763</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>47524</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>84.35M</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
     </row>
     <row r="249">
-      <c r="C249" s="3" t="n"/>
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Exchange Traded Fund</t>
+        </is>
+      </c>
+      <c r="C249" s="3" t="n">
+        <v>44763</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>86229</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2.00B</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>19.17</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>1.50%</t>
+        </is>
+      </c>
     </row>
     <row r="250">
-      <c r="C250" s="3" t="n"/>
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Credit Services</t>
+        </is>
+      </c>
+      <c r="C250" s="3" t="n">
+        <v>44763</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>236543</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>8.19M</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>23.51%</t>
+        </is>
+      </c>
     </row>
     <row r="251">
-      <c r="C251" s="3" t="n"/>
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>SSKN</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Medical Devices</t>
+        </is>
+      </c>
+      <c r="C251" s="3" t="n">
+        <v>44763</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>534923</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>37.84M</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>5.41%</t>
+        </is>
+      </c>
     </row>
     <row r="252">
-      <c r="C252" s="3" t="n"/>
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>RAM</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Shell Companies</t>
+        </is>
+      </c>
+      <c r="C252" s="3" t="n">
+        <v>44763</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>604495</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>182.22M</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>0.10%</t>
+        </is>
+      </c>
     </row>
     <row r="253">
-      <c r="C253" s="3" t="n"/>
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>CHWA</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Shell Companies</t>
+        </is>
+      </c>
+      <c r="C253" s="3" t="n">
+        <v>44763</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>688128</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>156.84M</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>-0.20%</t>
+        </is>
+      </c>
     </row>
     <row r="254">
-      <c r="C254" s="3" t="n"/>
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>LIFE</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="C254" s="3" t="n">
+        <v>44763</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>871066</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>88.16M</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>9.31%</t>
+        </is>
+      </c>
     </row>
     <row r="255">
-      <c r="C255" s="3" t="n"/>
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>ADIL</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="C255" s="3" t="n">
+        <v>44763</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>4740581</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>24.89M</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>-13.26%</t>
+        </is>
+      </c>
     </row>
     <row r="256">
-      <c r="C256" s="3" t="n"/>
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>NLSP</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="C256" s="3" t="n">
+        <v>44763</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>4757315</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>11.09M</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>-15.95%</t>
+        </is>
+      </c>
     </row>
     <row r="257">
-      <c r="C257" s="3" t="n"/>
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>VINO</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Real Estate - Diversified</t>
+        </is>
+      </c>
+      <c r="C257" s="3" t="n">
+        <v>44763</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>4901147</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>6.39M</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>1.16%</t>
+        </is>
+      </c>
     </row>
     <row r="258">
-      <c r="C258" s="3" t="n"/>
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>OLMA</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="C258" s="3" t="n">
+        <v>44763</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>5875153</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>186.00M</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>22.08%</t>
+        </is>
+      </c>
     </row>
     <row r="259">
-      <c r="C259" s="3" t="n"/>
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>VBLT</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="C259" s="3" t="n">
+        <v>44763</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>8294283</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>26.52M</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>-11.72%</t>
+        </is>
+      </c>
     </row>
     <row r="260">
-      <c r="C260" s="3" t="n"/>
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>DTSS</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Software - Infrastructure</t>
+        </is>
+      </c>
+      <c r="C260" s="3" t="n">
+        <v>44763</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>16123053</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>36.34M</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>15.85%</t>
+        </is>
+      </c>
     </row>
     <row r="261">
-      <c r="C261" s="3" t="n"/>
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>TUEM</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Discount Stores</t>
+        </is>
+      </c>
+      <c r="C261" s="3" t="n">
+        <v>44763</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>26989939</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>16.12M</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>33.47%</t>
+        </is>
+      </c>
     </row>
     <row r="262">
-      <c r="C262" s="3" t="n"/>
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>TRHC</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Health Information Services</t>
+        </is>
+      </c>
+      <c r="C262" s="3" t="n">
+        <v>44763</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>34050386</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>63.21M</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>56.15%</t>
+        </is>
+      </c>
     </row>
     <row r="263">
-      <c r="C263" s="3" t="n"/>
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>ADXN</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="C263" s="3" t="n">
+        <v>44763</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>142690873</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>5.79M</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>108.22%</t>
+        </is>
+      </c>
     </row>
     <row r="264">
-      <c r="C264" s="3" t="n"/>
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>ADXN</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="C264" s="3" t="n">
+        <v>44763</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>142690873</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>5.79M</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>108.22%</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="C265" s="3" t="n"/>
